--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2092282.015077581</v>
+        <v>2201423.268637707</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9686478.866436128</v>
+        <v>9708925.74191815</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5212815229666</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>217.7222245470159</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.59098294598642</v>
+        <v>203.3232532986324</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>196.699784115679</v>
+        <v>331.4313995349884</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>83.56121915223682</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.88870224750342</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>78.08858119326482</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.1477574274537</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>151.786556040051</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>200.2273227618907</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.7971820797027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>73.78417491007362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>162.1944220709586</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>75.00788511618087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>85.08368458989587</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.54185816719642</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>143.2091541404073</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.0312718434581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>72.26558381700011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428269</v>
+        <v>129.719450923317</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>21.8567702508357</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>62.18842302760264</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>136.5667167289885</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>75.12653431054498</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.55695577161148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.986492286524</v>
+        <v>1606.466236967715</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.986492286524</v>
+        <v>1237.503720027303</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.720793679774</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="E2" t="n">
-        <v>741.9325410815295</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>776.0043429178222</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>1013.627124136012</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1309.697690693613</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1615.172796929196</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1968.860256443063</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>2370.071327204606</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1996.605568943527</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.986492286524</v>
+        <v>1606.466236967715</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>915.0684808447982</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1200.40235127813</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.2765195627319</v>
+        <v>1646.416442528506</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1477.480259600599</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1477.480259600599</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1477.480259600599</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T4" t="n">
-        <v>1376.594157137402</v>
+        <v>2384.615742607014</v>
       </c>
       <c r="U4" t="n">
-        <v>1087.47581964124</v>
+        <v>2384.615742607014</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.47581964124</v>
+        <v>2384.615742607014</v>
       </c>
       <c r="W4" t="n">
-        <v>798.0586496042794</v>
+        <v>2095.198572570053</v>
       </c>
       <c r="X4" t="n">
-        <v>570.069098706262</v>
+        <v>1867.209021672036</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.2765195627319</v>
+        <v>1646.416442528506</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.652677778257</v>
+        <v>1670.571459290179</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1670.571459290179</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1670.571459290179</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>898.2468199959893</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="C7" t="n">
-        <v>729.3106370680824</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D7" t="n">
-        <v>579.1939976557467</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E7" t="n">
-        <v>431.2809040733536</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F7" t="n">
-        <v>284.3909565754432</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>284.3909565754432</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>135.6520584389494</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>515.1932066844233</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>287.203655786406</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>200.4473908899379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.203140240072</v>
+        <v>1315.610655259717</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>1315.610655259717</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>957.3449566529669</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.802980304194</v>
+        <v>2092.349827299651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1622.802980304194</v>
+        <v>1702.210495323839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220355</v>
+        <v>814.303254310484</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>645.3670713825771</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>347.3373383878483</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1483.126366498688</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1194.008029002526</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1194.008029002526</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>904.5908589655656</v>
+        <v>1444.733849182271</v>
       </c>
       <c r="X10" t="n">
-        <v>904.5908589655656</v>
+        <v>1216.744298284254</v>
       </c>
       <c r="Y10" t="n">
-        <v>683.7982798220355</v>
+        <v>995.9517191407238</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5069,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="E13" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>417.6289352913133</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>250.4328360061932</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368208</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D16" t="n">
-        <v>481.447947124485</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E16" t="n">
-        <v>481.447947124485</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F16" t="n">
-        <v>481.447947124485</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>169.5822035693667</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2824.769373306003</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C19" t="n">
-        <v>2655.833190378096</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D19" t="n">
-        <v>2505.71655096576</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="E19" t="n">
-        <v>2419.773435218391</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.773435218391</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076439</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420637</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.19996817779</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>3227.210417279773</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>3006.417838136243</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.448174698413</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0966395286528</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,16 +6068,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>3333.446064938863</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>3164.509882010957</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>3014.393242598621</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>2866.480149016228</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>2719.590201518317</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>2552.394102233197</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>2410.682271075395</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>4253.293829847611</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3963.87665981065</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>3735.887108912633</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>3515.094529769103</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D28" t="n">
-        <v>2504.882831151424</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>2438.670847218162</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2424.885537872346</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2242.03070352725</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2022.429238550191</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1733.354011894389</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1478.669523688502</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,22 +6785,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388645</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="C34" t="n">
-        <v>2770.435951460738</v>
+        <v>3006.417838136243</v>
       </c>
       <c r="D34" t="n">
-        <v>2770.435951460738</v>
+        <v>2856.301198723907</v>
       </c>
       <c r="E34" t="n">
-        <v>2622.522857878344</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F34" t="n">
-        <v>2475.632910380434</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
         <v>2337.686731866304</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408906</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2304.031991640193</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2084.430526663135</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229373</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,13 +7198,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7321,13 +7323,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7369,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,22 +7420,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558406</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630499</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>2561.485266376194</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376194</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376194</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>79.36488908811498</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>245.4541431073278</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.51053793615024</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.329716221310264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6.257951202384646</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>61.3502780566733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>47.87918985573482</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>142.9753202488368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.55338150863673</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>9.000252501565413</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409392967</v>
+        <v>18.89602209489536</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.51847645928598</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>84.24553961896653</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>28.95742156328038</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.8997516910996</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664502</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852405.0445469654</v>
+        <v>875217.4876982012</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>852405.0445469654</v>
+        <v>852211.2220023477</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852405.0445469654</v>
+        <v>852211.2220023477</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.284775255</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165055</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26433,10 +26435,10 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26448,16 +26450,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695011</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="N4" t="n">
-        <v>6287.480531695075</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695075</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743139.8629806648</v>
+        <v>-593558.5664359417</v>
       </c>
       <c r="C6" t="n">
-        <v>371611.920595255</v>
+        <v>199943.0792749529</v>
       </c>
       <c r="D6" t="n">
-        <v>371611.920595255</v>
+        <v>372707.4390648478</v>
       </c>
       <c r="E6" t="n">
-        <v>-29714.1672048934</v>
+        <v>-23117.5933260984</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.2744196525</v>
+        <v>477771.2744196521</v>
       </c>
       <c r="G6" t="n">
+        <v>477771.2744196521</v>
+      </c>
+      <c r="H6" t="n">
+        <v>477771.274419652</v>
+      </c>
+      <c r="I6" t="n">
+        <v>477771.2744196522</v>
+      </c>
+      <c r="J6" t="n">
+        <v>308357.2575936043</v>
+      </c>
+      <c r="K6" t="n">
+        <v>477771.2744196522</v>
+      </c>
+      <c r="L6" t="n">
+        <v>477771.2744196522</v>
+      </c>
+      <c r="M6" t="n">
+        <v>346886.8175154168</v>
+      </c>
+      <c r="N6" t="n">
+        <v>477771.2744196522</v>
+      </c>
+      <c r="O6" t="n">
+        <v>477771.2744196521</v>
+      </c>
+      <c r="P6" t="n">
         <v>477771.2744196524</v>
-      </c>
-      <c r="H6" t="n">
-        <v>477771.2744196523</v>
-      </c>
-      <c r="I6" t="n">
-        <v>477771.2744196523</v>
-      </c>
-      <c r="J6" t="n">
-        <v>310166.0966096703</v>
-      </c>
-      <c r="K6" t="n">
-        <v>477771.2744196526</v>
-      </c>
-      <c r="L6" t="n">
-        <v>477771.2744196526</v>
-      </c>
-      <c r="M6" t="n">
-        <v>345163.9806907257</v>
-      </c>
-      <c r="N6" t="n">
-        <v>477771.2744196525</v>
-      </c>
-      <c r="O6" t="n">
-        <v>477771.2744196522</v>
-      </c>
-      <c r="P6" t="n">
-        <v>477771.274419652</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3547642187449</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>131.5187441703972</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>158.1577130512255</v>
+        <v>18.84379433368397</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>152.541184601734</v>
+        <v>17.80956918242458</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.23537605166375</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>132.6959511045914</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>303.841788878997</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>116.5833432510154</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>68.96213995716099</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>86.29567557470025</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>307.4654529393634</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,13 +33268,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192553</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>357.2600601150165</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>512.0597304765056</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>304.632674239197</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4910455250332</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359219</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201423.268637707</v>
+        <v>2197267.08232974</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>59.5132947965168</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>217.7222245470159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>203.3232532986324</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>124.9159664481709</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>233.2338665947495</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.4313995349884</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>152.2183005503912</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.88870224750342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>78.08858119326482</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>223.5518288029161</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>206.2864326596774</v>
       </c>
       <c r="W10" t="n">
-        <v>200.2273227618907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.78417491007362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>75.00788511618087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>97.54185816719642</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>143.2091541404073</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>72.26558381700011</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>129.719450923317</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>127.6210071331224</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.8567702508357</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>62.18842302760264</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>75.12653431054498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.4114987159128</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>161.0175085755505</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.466236967715</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.503720027303</v>
+        <v>929.8068589052352</v>
       </c>
       <c r="D2" t="n">
-        <v>879.2380214205527</v>
+        <v>929.8068589052352</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>929.8068589052352</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>518.8209541156277</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272269</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>287.0569052926666</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178222</v>
+        <v>769.7558758031143</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136012</v>
+        <v>1410.779085423008</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693613</v>
+        <v>1706.84965198061</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929196</v>
+        <v>2012.324758216195</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443063</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2370.071327204606</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1996.605568943527</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1606.466236967715</v>
+        <v>1298.769375845647</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730576</v>
+        <v>979.2471082624006</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447982</v>
+        <v>1620.270317882294</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.40235127813</v>
+        <v>1905.604188315627</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1646.416442528506</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="C4" t="n">
-        <v>1477.480259600599</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="D4" t="n">
-        <v>1477.480259600599</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="E4" t="n">
-        <v>1477.480259600599</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>1330.590312102689</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102689</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102689</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110053</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395855</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713999</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046538</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789138</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137293</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="T4" t="n">
-        <v>2384.615742607014</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="U4" t="n">
-        <v>2384.615742607014</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="V4" t="n">
-        <v>2384.615742607014</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="W4" t="n">
-        <v>2095.198572570053</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="X4" t="n">
-        <v>1867.209021672036</v>
+        <v>1185.024565474079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1646.416442528506</v>
+        <v>964.2319863305489</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1283.971619226057</v>
+        <v>1519.561383463178</v>
       </c>
       <c r="C5" t="n">
-        <v>1283.971619226057</v>
+        <v>1519.561383463178</v>
       </c>
       <c r="D5" t="n">
-        <v>925.7059206193069</v>
+        <v>1161.295684856428</v>
       </c>
       <c r="E5" t="n">
-        <v>539.9176680210627</v>
+        <v>775.5074322581834</v>
       </c>
       <c r="F5" t="n">
-        <v>128.9317632314552</v>
+        <v>768.5619315089799</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>352.8800897091119</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477382</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4582,37 +4582,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739662</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W5" t="n">
-        <v>1670.571459290179</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X5" t="n">
-        <v>1670.571459290179</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y5" t="n">
-        <v>1670.571459290179</v>
+        <v>1906.1612235273</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>598.803157343134</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M6" t="n">
         <v>1262.420995951774</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.4473908899379</v>
+        <v>819.4115778851751</v>
       </c>
       <c r="C7" t="n">
-        <v>200.4473908899379</v>
+        <v>650.4753949572682</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>500.3587555449325</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>352.4456619625394</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>205.555714464629</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4746,31 +4746,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>804.6103767213839</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="W7" t="n">
-        <v>515.1932066844233</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="X7" t="n">
-        <v>287.203655786406</v>
+        <v>1001.060042715415</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.4473908899379</v>
+        <v>1001.060042715415</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.610655259717</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.610655259717</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>957.3449566529669</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.349827299651</v>
+        <v>2364.182838057231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.210495323839</v>
+        <v>1974.043506081419</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186012</v>
+        <v>598.803157343134</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349159</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452984</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>814.303254310484</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C10" t="n">
-        <v>645.3670713825771</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D10" t="n">
-        <v>495.2504319702414</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>347.3373383878483</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4983,31 +4983,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1438.613536154203</v>
       </c>
       <c r="W10" t="n">
-        <v>1444.733849182271</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X10" t="n">
-        <v>1216.744298284254</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.9517191407238</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892237</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892237</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>564.5188827892237</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6289352913133</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>250.4328360061932</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.345997432835</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4098145049279</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>773.2931750925922</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>625.380081510199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>478.4901340122886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>311.2940347271686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>169.5822035693667</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304622</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>733.4550657171305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>583.3384263047948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>583.3384263047948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3333.446064938863</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3164.509882010957</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3014.393242598621</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2866.480149016228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2719.590201518317</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2552.394102233197</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2410.682271075395</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>4507.978318053498</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>4253.293829847611</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3963.87665981065</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3735.887108912633</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3515.094529769103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2424.885537872346</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.03070352725</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.429238550191</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1733.354011894389</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1478.669523688502</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.252353651541</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>961.2628027535235</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3006.417838136243</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.417838136243</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.301198723907</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>620.8230468926976</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926976</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803618</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979687</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2084.430526663135</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U37" t="n">
-        <v>1795.355300007332</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.670811801445</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1251.253641764485</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1023.264090866467</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.4715117229373</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>449.3439841395904</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>162.785032227923</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037401</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>79.36488908811498</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.1946181815976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>186.330354504933</v>
       </c>
       <c r="M3" t="n">
-        <v>245.4541431073278</v>
+        <v>380.8926041660676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>173.763924374041</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017855</v>
+        <v>173.763924374041</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-7.366831715029562e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.077743684667804e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51053793615024</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>38.89198472948121</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.257951202384646</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>47.87918985573482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.9753202488368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.000252501565413</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18.89602209489536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>53.40527886852219</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.51847645928598</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>84.24553961896653</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>105.8997516910996</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>35.112639576356</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875217.4876982012</v>
+        <v>875217.487698201</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752547</v>
@@ -26328,25 +26328,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
@@ -26355,7 +26355,7 @@
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898933</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593558.5664359417</v>
+        <v>-593558.5664359429</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749529</v>
+        <v>199943.0792749541</v>
       </c>
       <c r="D6" t="n">
-        <v>372707.4390648478</v>
+        <v>372707.4390648477</v>
       </c>
       <c r="E6" t="n">
-        <v>-23117.5933260984</v>
+        <v>-23464.97258045542</v>
       </c>
       <c r="F6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="G6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652954</v>
       </c>
       <c r="H6" t="n">
-        <v>477771.274419652</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="I6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="J6" t="n">
-        <v>308357.2575936043</v>
+        <v>308009.8783392474</v>
       </c>
       <c r="K6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="L6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="M6" t="n">
-        <v>346886.8175154168</v>
+        <v>346539.4382610603</v>
       </c>
       <c r="N6" t="n">
-        <v>477771.2744196522</v>
+        <v>477423.8951652953</v>
       </c>
       <c r="O6" t="n">
-        <v>477771.2744196521</v>
+        <v>477423.8951652952</v>
       </c>
       <c r="P6" t="n">
-        <v>477771.2744196524</v>
+        <v>477423.8951652952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522348</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>352.7744438985274</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>131.5187441703972</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>18.84379433368397</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>100.7936889408663</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>67.55242065371027</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.80956918242458</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>14.07812630033834</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>132.6959511045914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>303.841788878997</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>146.1792718755529</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>45.85121066415059</v>
       </c>
       <c r="W10" t="n">
-        <v>86.29567557470025</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31436,28 +31436,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,10 +32560,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192553</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>237.6333838079261</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>487.574717687321</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>357.2600601150165</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>103.2802639586409</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>398.0383072855698</v>
       </c>
       <c r="M3" t="n">
-        <v>512.0597304765056</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407397</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>174.0696575289992</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>362.3108833671851</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949296</v>
+        <v>362.3108833671851</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36129,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,10 +36208,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359219</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2197267.08232974</v>
+        <v>2199027.612632526</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>59.5132947965168</v>
+        <v>54.07122189324754</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>124.9159664481709</v>
+        <v>124.9159664481734</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>221.0371939537071</v>
       </c>
       <c r="H5" t="n">
-        <v>233.2338665947495</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.2183005503912</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>163.08468021139</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>134.9945673323247</v>
       </c>
       <c r="X8" t="n">
-        <v>223.5518288029161</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>206.2864326596774</v>
+        <v>206.2864326596783</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>247.2924896597629</v>
+        <v>149.9095691544925</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>77.93612009725524</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>127.6210071331224</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>109.1623230749906</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936197</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.13809394730832</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,61 +4306,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.769375845647</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="C2" t="n">
-        <v>929.8068589052352</v>
+        <v>1282.57551417535</v>
       </c>
       <c r="D2" t="n">
-        <v>929.8068589052352</v>
+        <v>924.3098155685993</v>
       </c>
       <c r="E2" t="n">
-        <v>929.8068589052352</v>
+        <v>924.3098155685993</v>
       </c>
       <c r="F2" t="n">
-        <v>518.8209541156277</v>
+        <v>513.3239107789918</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>287.0569052926666</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>769.7558758031143</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>1410.779085423008</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1706.84965198061</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216195</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140985</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077745</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
         <v>1982.600918459332</v>
@@ -4369,13 +4369,13 @@
         <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.769375845647</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1298.769375845647</v>
+        <v>1651.538031115761</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093827</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496866</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>979.2471082624006</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1620.270317882294</v>
+        <v>1058.719588798006</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315627</v>
+        <v>1699.7427984179</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1938.547750169359</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4485,49 +4485,49 @@
         <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
         <v>1185.024565474079</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1519.561383463178</v>
+        <v>1395.384202882924</v>
       </c>
       <c r="C5" t="n">
-        <v>1519.561383463178</v>
+        <v>1395.384202882924</v>
       </c>
       <c r="D5" t="n">
-        <v>1161.295684856428</v>
+        <v>1037.118504276173</v>
       </c>
       <c r="E5" t="n">
-        <v>775.5074322581834</v>
+        <v>651.3302516779288</v>
       </c>
       <c r="F5" t="n">
-        <v>768.5619315089799</v>
+        <v>644.3847509287253</v>
       </c>
       <c r="G5" t="n">
-        <v>352.8800897091119</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477382</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4582,37 +4582,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797414</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.1612235273</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X5" t="n">
-        <v>1906.1612235273</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="Y5" t="n">
-        <v>1906.1612235273</v>
+        <v>1781.984042947045</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.803157343134</v>
+        <v>491.5015312480857</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594485</v>
+        <v>788.8134803644004</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1155.119369856726</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>819.4115778851751</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C7" t="n">
-        <v>650.4753949572682</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D7" t="n">
-        <v>500.3587555449325</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>352.4456619625394</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>205.555714464629</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910903</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910903</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910903</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.744530921302</v>
+        <v>1062.867429488303</v>
       </c>
       <c r="V7" t="n">
-        <v>1001.060042715415</v>
+        <v>808.1829412824161</v>
       </c>
       <c r="W7" t="n">
-        <v>1001.060042715415</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="X7" t="n">
-        <v>1001.060042715415</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="Y7" t="n">
-        <v>1001.060042715415</v>
+        <v>518.7657712454554</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>1183.755747759855</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718912</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140985</v>
+        <v>2329.4574367402</v>
       </c>
       <c r="X8" t="n">
-        <v>2364.182838057231</v>
+        <v>2329.4574367402</v>
       </c>
       <c r="Y8" t="n">
-        <v>1974.043506081419</v>
+        <v>1939.318104764388</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>598.803157343134</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594485</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2255.657696694299</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4947,55 +4947,55 @@
         <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
         <v>1438.613536154203</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311365</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.384895601574</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613763</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,19 +5518,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,10 +5843,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2251.007271617388</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2031.40580664033</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1742.330579984527</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1487.64609177864</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.22892174168</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6557,7 +6557,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>198.0274703142544</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7031,7 +7031,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
         <v>484.8112968429803</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>162.785032227923</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037401</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.1946181815976</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>186.330354504933</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660676</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>207.9407978764908</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.763924374041</v>
+        <v>65.37844346995152</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.763924374041</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>191.4694788103606</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-7.366831715029562e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.077743684667804e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.89198472948121</v>
+        <v>136.2749052347516</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>139.469330230033</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.40527886852219</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>142.9753202488374</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864911</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875217.487698201</v>
+        <v>875217.4876982009</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673675</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832814.7603673673</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832814.7603673675</v>
+        <v>832814.7603673674</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832814.7603673674</v>
+        <v>832814.7603673673</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695031</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593558.5664359429</v>
+        <v>-593558.5664359439</v>
       </c>
       <c r="C6" t="n">
-        <v>199943.0792749541</v>
+        <v>199943.0792749553</v>
       </c>
       <c r="D6" t="n">
-        <v>372707.4390648477</v>
+        <v>372707.4390648478</v>
       </c>
       <c r="E6" t="n">
-        <v>-23464.97258045542</v>
+        <v>-23152.33125153382</v>
       </c>
       <c r="F6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="G6" t="n">
-        <v>477423.8951652954</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="H6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="I6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="J6" t="n">
-        <v>308009.8783392474</v>
+        <v>308322.5196681685</v>
       </c>
       <c r="K6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942164</v>
       </c>
       <c r="L6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942168</v>
       </c>
       <c r="M6" t="n">
-        <v>346539.4382610603</v>
+        <v>346852.0795899814</v>
       </c>
       <c r="N6" t="n">
-        <v>477423.8951652953</v>
+        <v>477736.5364942166</v>
       </c>
       <c r="O6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942165</v>
       </c>
       <c r="P6" t="n">
-        <v>477423.8951652952</v>
+        <v>477736.5364942165</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>352.7744438985274</v>
+        <v>358.2165168017966</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>100.7936889408663</v>
+        <v>100.7936889408638</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>190.4878294281623</v>
       </c>
       <c r="H5" t="n">
-        <v>67.55242065371027</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.07812630033834</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>123.1419190083157</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>214.2464013850883</v>
       </c>
       <c r="X8" t="n">
-        <v>146.1792718755529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>45.85121066415059</v>
+        <v>45.85121066414968</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>237.6333838079261</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.574717687321</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352463</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269026</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223259</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586409</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643751</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>398.0383072855698</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352463</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812708</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289992</v>
+        <v>382.0104554054905</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527184</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321223</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671851</v>
+        <v>253.9254024630957</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821468</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131502</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671851</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>309.4991650401228</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
